--- a/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育毕业生数.xlsx
+++ b/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育毕业生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,450 +528,430 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>81.74890000000001</v>
+        <v>96.71469999999999</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>128.5198</v>
+        <v>129.8601</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>350.072</v>
+        <v>388.935</v>
       </c>
       <c r="H2" t="n">
-        <v>128.4559</v>
+        <v>129.8201</v>
       </c>
       <c r="I2" t="n">
-        <v>82.0993</v>
+        <v>86.42870000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>78.4872</v>
+        <v>74.2839</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8902</v>
+        <v>7.2665</v>
       </c>
       <c r="L2" t="n">
-        <v>38.056</v>
+        <v>44.3503</v>
       </c>
       <c r="M2" t="n">
-        <v>44.9462</v>
+        <v>51.6168</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0639</v>
+        <v>0.04</v>
       </c>
       <c r="O2" t="n">
-        <v>160.2361</v>
+        <v>170.9986</v>
       </c>
       <c r="P2" t="n">
-        <v>50.4174</v>
+        <v>58.9964</v>
       </c>
       <c r="Q2" t="n">
-        <v>42.8704</v>
+        <v>50.6959</v>
       </c>
       <c r="R2" t="n">
-        <v>93.2878</v>
+        <v>109.6923</v>
       </c>
       <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>96.71469999999999</v>
+        <v>91.7114</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>129.8601</v>
+        <v>131.1881</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>388.935</v>
+        <v>467.1427</v>
       </c>
       <c r="H3" t="n">
-        <v>129.8201</v>
+        <v>131.1881</v>
       </c>
       <c r="I3" t="n">
-        <v>86.42870000000001</v>
+        <v>88.5433</v>
       </c>
       <c r="J3" t="n">
-        <v>74.2839</v>
+        <v>72.4905</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2665</v>
+        <v>6.3076</v>
       </c>
       <c r="L3" t="n">
-        <v>44.3503</v>
+        <v>47.9562</v>
       </c>
       <c r="M3" t="n">
-        <v>51.6168</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.04</v>
-      </c>
+        <v>54.2638</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>170.9986</v>
+        <v>164.2019</v>
       </c>
       <c r="P3" t="n">
-        <v>58.9964</v>
+        <v>64.9902</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.6959</v>
+        <v>57.9675</v>
       </c>
       <c r="R3" t="n">
-        <v>109.6923</v>
+        <v>122.9577</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>91.7114</v>
+        <v>88.5895</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>131.1881</v>
+        <v>134.1982</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>467.1427</v>
+        <v>590.0634</v>
       </c>
       <c r="H4" t="n">
-        <v>131.1881</v>
+        <v>134.1982</v>
       </c>
       <c r="I4" t="n">
-        <v>88.5433</v>
+        <v>96.87139999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>72.4905</v>
+        <v>73.40949999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>6.3076</v>
+        <v>5.838</v>
       </c>
       <c r="L4" t="n">
-        <v>47.9562</v>
+        <v>52.688</v>
       </c>
       <c r="M4" t="n">
-        <v>54.2638</v>
+        <v>58.526</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>164.2019</v>
+        <v>161.999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.9902</v>
+        <v>64.30719999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.9675</v>
+        <v>66.2629</v>
       </c>
       <c r="R4" t="n">
-        <v>122.9577</v>
+        <v>130.5701</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>88.5895</v>
+        <v>79.0714</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>134.1982</v>
+        <v>138.4917</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>590.0634</v>
+        <v>634.7047</v>
       </c>
       <c r="H5" t="n">
-        <v>134.1982</v>
+        <v>138.4917</v>
       </c>
       <c r="I5" t="n">
-        <v>96.87139999999999</v>
+        <v>100.8291</v>
       </c>
       <c r="J5" t="n">
-        <v>73.40949999999999</v>
+        <v>74.7589</v>
       </c>
       <c r="K5" t="n">
-        <v>5.838</v>
+        <v>4.97</v>
       </c>
       <c r="L5" t="n">
-        <v>52.688</v>
+        <v>54.3697</v>
       </c>
       <c r="M5" t="n">
-        <v>58.526</v>
+        <v>59.3397</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>161.999</v>
+        <v>153.8303</v>
       </c>
       <c r="P5" t="n">
-        <v>64.30719999999999</v>
+        <v>61.3185</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.2629</v>
+        <v>71.95350000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>130.5701</v>
+        <v>133.272</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>79.0714</v>
+        <v>73.9472</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>138.4917</v>
+        <v>142.1784</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>634.7047</v>
+        <v>673.7691</v>
       </c>
       <c r="H6" t="n">
-        <v>138.4917</v>
+        <v>142.1774</v>
       </c>
       <c r="I6" t="n">
-        <v>100.8291</v>
+        <v>104.5563</v>
       </c>
       <c r="J6" t="n">
-        <v>74.7589</v>
+        <v>74.44370000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>4.97</v>
+        <v>4.3809</v>
       </c>
       <c r="L6" t="n">
-        <v>54.3697</v>
+        <v>58.1894</v>
       </c>
       <c r="M6" t="n">
-        <v>59.3397</v>
+        <v>62.5703</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>153.8303</v>
+        <v>148.3909</v>
       </c>
       <c r="P6" t="n">
-        <v>61.3185</v>
+        <v>61.1442</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.95350000000001</v>
+        <v>80.80970000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>133.272</v>
+        <v>141.9645</v>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>73.9472</v>
+        <v>62.9156</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>142.1784</v>
+        <v>151.3174</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>673.7691</v>
+        <v>738.3630000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>142.1774</v>
+        <v>151.314</v>
       </c>
       <c r="I7" t="n">
-        <v>104.5563</v>
+        <v>110.1053</v>
       </c>
       <c r="J7" t="n">
-        <v>74.44370000000001</v>
+        <v>77.3912</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3809</v>
+        <v>3.9579</v>
       </c>
       <c r="L7" t="n">
-        <v>58.1894</v>
+        <v>60.3134</v>
       </c>
       <c r="M7" t="n">
-        <v>62.5703</v>
+        <v>64.2713</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>148.3909</v>
+        <v>140.3068</v>
       </c>
       <c r="P7" t="n">
-        <v>61.1442</v>
+        <v>62.836</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.80970000000001</v>
+        <v>88.4434</v>
       </c>
       <c r="R7" t="n">
-        <v>141.9645</v>
+        <v>151.2964</v>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>62.9156</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>151.3174</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>738.3630000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>151.314</v>
-      </c>
+        <v>782.3138</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>110.1053</v>
+        <v>119.259</v>
       </c>
       <c r="J8" t="n">
-        <v>77.3912</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9579</v>
-      </c>
-      <c r="L8" t="n">
-        <v>60.3134</v>
-      </c>
-      <c r="M8" t="n">
-        <v>64.2713</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>140.3068</v>
-      </c>
-      <c r="P8" t="n">
-        <v>62.836</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>88.4434</v>
-      </c>
-      <c r="R8" t="n">
-        <v>151.2964</v>
-      </c>
+        <v>79.672</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>56.2312</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>167.6066</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>782.3138</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>829.5846</v>
+      </c>
+      <c r="H9" t="n">
+        <v>167.6041</v>
+      </c>
       <c r="I9" t="n">
-        <v>119.259</v>
+        <v>126.7129</v>
       </c>
       <c r="J9" t="n">
-        <v>79.672</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
+        <v>82.8656</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.3159</v>
+      </c>
+      <c r="L9" t="n">
+        <v>57.6435</v>
+      </c>
+      <c r="M9" t="n">
+        <v>60.9594</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>76.77249999999999</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>92.9405</v>
+      </c>
+      <c r="R9" t="n">
+        <v>169.7362</v>
+      </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>56.2312</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>167.6066</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>829.5846</v>
-      </c>
-      <c r="H10" t="n">
-        <v>167.6041</v>
-      </c>
+        <v>935.9928</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>126.7129</v>
+        <v>140.1671</v>
       </c>
       <c r="J10" t="n">
-        <v>82.8656</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3159</v>
-      </c>
-      <c r="L10" t="n">
-        <v>57.6435</v>
-      </c>
-      <c r="M10" t="n">
-        <v>60.9594</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>92.5741</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0.0018</v>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>76.77249999999999</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>92.9405</v>
-      </c>
-      <c r="R10" t="n">
-        <v>169.7362</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -980,20 +960,20 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>935.9928</v>
+        <v>945.1393</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>140.1671</v>
+        <v>149.8354</v>
       </c>
       <c r="J11" t="n">
-        <v>92.5741</v>
+        <v>101.4841</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1004,7 +984,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1013,20 +993,20 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>945.1393</v>
+        <v>923.778</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>149.8354</v>
+        <v>156.5518</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4841</v>
+        <v>108.5292</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0.0022</v>
+        <v>0.0034</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1037,31 +1017,37 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>71.9406</v>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>221.1286</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>923.778</v>
+        <v>816.2542</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>156.5518</v>
+        <v>169.5455</v>
       </c>
       <c r="J13" t="n">
-        <v>108.5292</v>
+        <v>113.1454</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+        <v>0.0002</v>
+      </c>
+      <c r="O13" t="n">
+        <v>185.086</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
